--- a/Módulo 29/Automação consulta em sites/Processos Atualizado.xlsx
+++ b/Módulo 29/Automação consulta em sites/Processos Atualizado.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Não encontrado</t>
+          <t>Não Encontrado</t>
         </is>
       </c>
     </row>
